--- a/fabrication_ports/ports_scenario_min.xlsx
+++ b/fabrication_ports/ports_scenario_min.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\fabrication_ports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1861BCD3-2551-4C76-BB64-9158E19DB770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133628C6-93CB-441D-A7DC-0D6181FFF5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41400" yWindow="13380" windowWidth="2970" windowHeight="1455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="2160" windowWidth="1980" windowHeight="970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg Demand Scenario" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Avg Demand Scenario'!$E$9:$E$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Avg Demand Scenario'!$E$10:$E$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="171">
   <si>
     <t>Port</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>USFR planned to be done in 2024</t>
+  </si>
+  <si>
+    <t>Floating date adder</t>
   </si>
 </sst>
 </file>
@@ -759,7 +762,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Avg Demand Scenario'!$B$10:$B$46</c:f>
+              <c:f>'Avg Demand Scenario'!$B$11:$B$47</c:f>
               <c:strCache>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
@@ -878,7 +881,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Avg Demand Scenario'!$G$10:$G$46</c:f>
+              <c:f>'Avg Demand Scenario'!$G$11:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -919,7 +922,7 @@
                   <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2023</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2020</c:v>
@@ -973,10 +976,10 @@
                   <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2025</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2026</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2031</c:v>
@@ -1017,7 +1020,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Avg Demand Scenario'!$B$10:$B$46</c:f>
+              <c:f>'Avg Demand Scenario'!$B$11:$B$47</c:f>
               <c:strCache>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
@@ -1136,7 +1139,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Avg Demand Scenario'!$L$10:$L$46</c:f>
+              <c:f>'Avg Demand Scenario'!$L$11:$L$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1582,7 +1585,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Avg Demand Scenario'!$I$51</c:f>
+              <c:f>'Avg Demand Scenario'!$I$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1603,7 +1606,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Avg Demand Scenario'!$H$52:$H$70</c:f>
+              <c:f>'Avg Demand Scenario'!$H$53:$H$71</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
@@ -1665,7 +1668,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Avg Demand Scenario'!$I$52:$I$70</c:f>
+              <c:f>'Avg Demand Scenario'!$I$53:$I$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3045,13 +3048,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>30254</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>58177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3081,13 +3084,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>898921</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>75008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>2458640</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>151208</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3119,7 +3122,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shields, Matt" refreshedDate="44771.490716435183" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="39" xr:uid="{8520C2B9-52CF-46B0-8F6A-64DE6645DC34}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A9:L46" sheet="Avg Demand Scenario"/>
+    <worksheetSource ref="A10:L47" sheet="Avg Demand Scenario"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Component" numFmtId="0">
@@ -3739,7 +3742,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA5F775-FB12-4A7B-98B7-3842EC7091C4}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="H51:I70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="H52:I71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -4152,10 +4155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F1FF48-4396-4FE3-ABD9-234FB66F60F4}">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4206,10 +4209,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>100</v>
@@ -4217,193 +4220,163 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>146</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>5</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>2021</v>
       </c>
-      <c r="H10">
-        <f>$D$5</f>
+      <c r="H11">
+        <f>$D$6</f>
         <v>2</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <f>$D$3</f>
         <v>0.25</v>
       </c>
-      <c r="K10">
-        <f>ROUNDDOWN(G10+H10+I10*(1-J10),0)</f>
-        <v>2025</v>
-      </c>
-      <c r="L10">
-        <f>K10-G10</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>2023</v>
-      </c>
-      <c r="H11">
-        <f>$D$5</f>
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ref="J11:J14" si="0">$D$3</f>
-        <v>0.25</v>
-      </c>
       <c r="K11">
         <f>ROUNDDOWN(G11+H11+I11*(1-J11),0)</f>
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L46" si="1">K11-G11</f>
+        <f>K11-G11</f>
         <v>4</v>
-      </c>
-      <c r="M11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G12">
+        <f>$D$4</f>
         <v>2023</v>
       </c>
       <c r="H12">
-        <f>$D$5</f>
+        <f>$D$6</f>
         <v>2</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J12:J15" si="0">$D$3</f>
         <v>0.25</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:K46" si="2">ROUNDDOWN(G12+H12+I12*(1-J12),0)</f>
+        <f>ROUNDDOWN(G12+H12+I12*(1-J12),0)</f>
         <v>2027</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L12:L47" si="1">K12-G12</f>
         <v>4</v>
       </c>
       <c r="M12" t="s">
@@ -4412,25 +4385,26 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G13">
+        <f t="shared" ref="G13:G15" si="2">$D$4</f>
         <v>2023</v>
       </c>
       <c r="H13">
-        <f>$D$5</f>
+        <f>$D$6</f>
         <v>2</v>
       </c>
       <c r="I13">
@@ -4441,7 +4415,7 @@
         <v>0.25</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K13:K47" si="3">ROUNDDOWN(G13+H13+I13*(1-J13),0)</f>
         <v>2027</v>
       </c>
       <c r="L13">
@@ -4449,31 +4423,32 @@
         <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="G14">
-        <v>2024</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
       <c r="H14">
-        <f>$D$5+$D$6</f>
-        <v>3</v>
+        <f>$D$6</f>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -4483,62 +4458,63 @@
         <v>0.25</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
-        <v>2029</v>
+        <f t="shared" si="3"/>
+        <v>2027</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="M14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
+        <v>144</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="G15">
-        <v>2021</v>
+        <f>$D$4+$D$5</f>
+        <v>2024</v>
       </c>
       <c r="H15">
-        <f>$D$5</f>
-        <v>2</v>
+        <f>$D$6+$D$7</f>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>3</v>
       </c>
       <c r="J15">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
-        <v>2025</v>
+        <f t="shared" si="3"/>
+        <v>2029</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M15" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>145</v>
@@ -4556,7 +4532,7 @@
         <v>2021</v>
       </c>
       <c r="H16">
-        <f>$D$5</f>
+        <f>$D$6</f>
         <v>2</v>
       </c>
       <c r="I16">
@@ -4567,7 +4543,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2025</v>
       </c>
       <c r="L16">
@@ -4580,199 +4556,201 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>145</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G17">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="H17">
-        <f>$D$5</f>
+        <f>$D$6</f>
         <v>2</v>
       </c>
       <c r="I17">
         <v>3</v>
       </c>
       <c r="J17">
-        <f t="shared" ref="J17" si="3">$D$3</f>
-        <v>0.25</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
-        <v>2027</v>
+        <f t="shared" si="3"/>
+        <v>2025</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="M17" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="G18">
+        <f t="shared" ref="G18" si="4">$D$4</f>
         <v>2023</v>
       </c>
       <c r="H18">
-        <f>$D$5+$D$6</f>
-        <v>3</v>
+        <f>$D$6</f>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18">
+        <f t="shared" ref="J18" si="5">$D$3</f>
         <v>0.25</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18" si="4">ROUNDDOWN(G18+H18+I18*(1-J18),0)</f>
+        <f t="shared" si="3"/>
+        <v>2027</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19">
+        <v>2023</v>
+      </c>
+      <c r="H19">
+        <f>$D$6+$D$7</f>
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>0.25</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19" si="6">ROUNDDOWN(G19+H19+I19*(1-J19),0)</f>
         <v>2028</v>
       </c>
-      <c r="L18">
-        <f t="shared" ref="L18" si="5">K18-G18</f>
+      <c r="L19">
+        <f t="shared" ref="L19" si="7">K19-G19</f>
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>24</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>2021</v>
       </c>
-      <c r="H19">
-        <f>$D$5</f>
+      <c r="H20">
+        <f>$D$6</f>
         <v>2</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>2</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>0.8</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
+      <c r="K20">
+        <f t="shared" si="3"/>
         <v>2023</v>
       </c>
-      <c r="L19">
+      <c r="L20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M20" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>2023</v>
-      </c>
-      <c r="H20">
-        <f>$D$5</f>
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <f t="shared" ref="J20:J22" si="6">$D$3</f>
-        <v>0.25</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>2026</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G21">
+        <f t="shared" ref="G21:G23" si="8">$D$4</f>
         <v>2023</v>
       </c>
       <c r="H21">
-        <f>$D$5</f>
+        <f>$D$6</f>
         <v>2</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J21:J23" si="9">$D$3</f>
         <v>0.25</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2026</v>
       </c>
       <c r="L21">
@@ -4780,275 +4758,279 @@
         <v>3</v>
       </c>
       <c r="M21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="G22">
+        <f t="shared" si="8"/>
         <v>2023</v>
       </c>
       <c r="H22">
-        <f>$D$5+$D$6</f>
-        <v>3</v>
+        <f>$D$6</f>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22" si="7">ROUNDDOWN(G22+H22+I22*(1-J22),0)</f>
-        <v>2027</v>
+        <f t="shared" si="3"/>
+        <v>2026</v>
       </c>
       <c r="L22">
-        <f t="shared" ref="L22" si="8">K22-G22</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="G23">
-        <v>2020</v>
+        <f>$D$4+$D$5</f>
+        <v>2024</v>
       </c>
       <c r="H23">
-        <f>$D$5</f>
-        <v>2</v>
+        <f>$D$6+$D$7</f>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23" si="10">ROUNDDOWN(G23+H23+I23*(1-J23),0)</f>
+        <v>2028</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23" si="11">K23-G23</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <v>2020</v>
+      </c>
+      <c r="H24">
+        <f>$D$6</f>
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
         <v>0.5</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
+      <c r="K24">
+        <f t="shared" si="3"/>
         <v>2023</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>6</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>5</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>2021</v>
       </c>
-      <c r="H24">
-        <f>$D$5</f>
+      <c r="H25">
+        <f>$D$6</f>
         <v>2</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>3.5</v>
       </c>
-      <c r="J24">
-        <f t="shared" ref="J24:J25" si="9">$D$3</f>
+      <c r="J25">
+        <f t="shared" ref="J25:J26" si="12">$D$3</f>
         <v>0.25</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
+      <c r="K25">
+        <f t="shared" si="3"/>
         <v>2025</v>
       </c>
-      <c r="L24">
+      <c r="L25">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>65</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>66</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>154</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>22</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>67</v>
       </c>
-      <c r="G25">
+      <c r="G26">
+        <f t="shared" ref="G26" si="13">$D$4</f>
         <v>2023</v>
       </c>
-      <c r="H25">
-        <f>$D$5</f>
+      <c r="H26">
+        <f>$D$6</f>
         <v>2</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="9"/>
+      <c r="J26">
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="K25">
-        <f>ROUNDDOWN(G25+H25+I25*(1-J25),0)</f>
+      <c r="K26">
+        <f>ROUNDDOWN(G26+H26+I26*(1-J26),0)</f>
         <v>2025</v>
       </c>
-      <c r="L25">
+      <c r="L26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M26" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26">
-        <v>2025</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <f>ROUNDDOWN(G26+H26+I26*(1-J26),0)</f>
-        <v>2028</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M26" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>25</v>
+        <v>155</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27:H36" si="10">$D$5</f>
         <v>2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
-        <v>2024</v>
+        <f>ROUNDDOWN(G27+H27+I27*(1-J27),0)</f>
+        <v>2028</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M27" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
@@ -5057,466 +5039,470 @@
         <v>24</v>
       </c>
       <c r="G28">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="H28">
-        <f t="shared" si="10"/>
+        <f>$D$6</f>
         <v>2</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28:J30" si="11">$D$3</f>
         <v>0.25</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
-        <v>2026</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M28" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G29">
-        <v>2021</v>
+        <f t="shared" ref="G29" si="14">$D$4</f>
+        <v>2023</v>
       </c>
       <c r="H29">
-        <f t="shared" si="10"/>
+        <f>$D$6</f>
         <v>2</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J29:J31" si="15">$D$3</f>
         <v>0.25</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2026</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
       <c r="G30">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="H30">
-        <f t="shared" si="10"/>
+        <f>$D$6</f>
         <v>2</v>
       </c>
       <c r="I30">
         <v>4</v>
       </c>
       <c r="J30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
-        <v>2028</v>
+        <f t="shared" si="3"/>
+        <v>2026</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M30" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G31">
-        <v>2018</v>
+        <f t="shared" ref="G31" si="16">$D$4</f>
+        <v>2023</v>
       </c>
       <c r="H31">
-        <f t="shared" si="10"/>
+        <f>$D$6</f>
         <v>2</v>
       </c>
-      <c r="I31" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31" t="s">
-        <v>80</v>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="15"/>
+        <v>0.25</v>
       </c>
       <c r="K31">
-        <v>2020</v>
+        <f t="shared" si="3"/>
+        <v>2028</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>2018</v>
+      </c>
+      <c r="H32">
+        <f>$D$6</f>
         <v>2</v>
       </c>
-      <c r="M31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32">
-        <v>2021</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>4</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ref="J32:J36" si="12">$D$3</f>
-        <v>0.25</v>
+      <c r="I32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" t="s">
+        <v>80</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>16</v>
+        <v>159</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
       </c>
       <c r="G33">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="H33">
-        <f t="shared" si="10"/>
+        <f>$D$6</f>
         <v>2</v>
       </c>
       <c r="I33">
         <v>4</v>
       </c>
       <c r="J33">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J33:J37" si="17">$D$3</f>
         <v>0.25</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
-        <v>2028</v>
+        <f t="shared" si="3"/>
+        <v>2026</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M33" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G34">
+        <f t="shared" ref="G34:G35" si="18">$D$4</f>
         <v>2023</v>
       </c>
       <c r="H34">
-        <f t="shared" si="10"/>
+        <f>$D$6</f>
         <v>2</v>
       </c>
       <c r="I34">
         <v>4</v>
       </c>
       <c r="J34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2028</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="M34" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>87</v>
-      </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>89</v>
+        <v>161</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
       </c>
       <c r="G35">
-        <v>2021</v>
+        <f t="shared" si="18"/>
+        <v>2023</v>
       </c>
       <c r="H35">
-        <f t="shared" si="10"/>
+        <f>$D$6</f>
         <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
-        <v>2024</v>
+        <f t="shared" si="3"/>
+        <v>2028</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
+        <v>162</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
       </c>
       <c r="G36">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="H36">
-        <f t="shared" si="10"/>
+        <f>$D$6</f>
         <v>2</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
-        <v>2028</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" t="s">
-        <v>112</v>
-      </c>
       <c r="G37">
+        <f t="shared" ref="G37:G39" si="19">$D$4</f>
         <v>2023</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <f>$D$6</f>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>0.25</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
-        <v>2025</v>
+        <f t="shared" si="3"/>
+        <v>2028</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M37" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="G38">
+        <f t="shared" si="19"/>
         <v>2023</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
-        <v>2026</v>
+        <f t="shared" si="3"/>
+        <v>2025</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M38" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="G39">
-        <v>2024</v>
+        <f t="shared" si="19"/>
+        <v>2023</v>
       </c>
       <c r="H39">
-        <f>$D$5+$D$6</f>
         <v>3</v>
       </c>
       <c r="I39">
@@ -5526,26 +5512,29 @@
         <v>0.25</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
-        <v>2027</v>
+        <f t="shared" si="3"/>
+        <v>2026</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M39" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
         <v>122</v>
@@ -5554,10 +5543,11 @@
         <v>126</v>
       </c>
       <c r="G40">
-        <v>2025</v>
+        <f>$D$4+$D$5</f>
+        <v>2024</v>
       </c>
       <c r="H40">
-        <f t="shared" ref="H40:H41" si="13">$D$5+$D$6</f>
+        <f>$D$6+$D$7</f>
         <v>3</v>
       </c>
       <c r="I40">
@@ -5567,8 +5557,8 @@
         <v>0.25</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
-        <v>2028</v>
+        <f t="shared" si="3"/>
+        <v>2027</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
@@ -5580,25 +5570,26 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F41" t="s">
         <v>126</v>
       </c>
       <c r="G41">
-        <v>2026</v>
+        <f>$D$4+$D$5</f>
+        <v>2024</v>
       </c>
       <c r="H41">
-        <f t="shared" si="13"/>
+        <f>$D$6+$D$7</f>
         <v>3</v>
       </c>
       <c r="I41">
@@ -5608,8 +5599,8 @@
         <v>0.25</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
-        <v>2029</v>
+        <f t="shared" si="3"/>
+        <v>2027</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
@@ -5621,26 +5612,27 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="G42">
-        <v>2031</v>
+        <f>$D$4+$D$5</f>
+        <v>2024</v>
       </c>
       <c r="H42">
-        <f>$D$6</f>
-        <v>1</v>
+        <f>$D$6+$D$7</f>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -5649,12 +5641,12 @@
         <v>0.25</v>
       </c>
       <c r="K42">
-        <f t="shared" ref="K42:K43" si="14">ROUNDDOWN(G42+H42+I42*(1-J42),0)</f>
-        <v>2032</v>
+        <f t="shared" si="3"/>
+        <v>2027</v>
       </c>
       <c r="L42">
-        <f t="shared" ref="L42:L43" si="15">K42-G42</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="M42" t="s">
         <v>136</v>
@@ -5662,25 +5654,25 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="G43">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="H43:H44" si="16">$D$6</f>
+        <f>$D$7</f>
         <v>1</v>
       </c>
       <c r="I43">
@@ -5690,11 +5682,11 @@
         <v>0.25</v>
       </c>
       <c r="K43">
-        <f t="shared" si="14"/>
-        <v>2031</v>
+        <f t="shared" ref="K43:K44" si="20">ROUNDDOWN(G43+H43+I43*(1-J43),0)</f>
+        <v>2032</v>
       </c>
       <c r="L43">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="L43:L44" si="21">K43-G43</f>
         <v>1</v>
       </c>
       <c r="M43" t="s">
@@ -5703,25 +5695,25 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="H44">
-        <f t="shared" si="16"/>
+        <f>$D$7</f>
         <v>1</v>
       </c>
       <c r="I44">
@@ -5731,11 +5723,11 @@
         <v>0.25</v>
       </c>
       <c r="K44">
-        <f t="shared" ref="K44" si="17">ROUNDDOWN(G44+H44+I44*(1-J44),0)</f>
-        <v>2030</v>
+        <f t="shared" si="20"/>
+        <v>2031</v>
       </c>
       <c r="L44">
-        <f t="shared" ref="L44" si="18">K44-G44</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="M44" t="s">
@@ -5743,70 +5735,71 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>118</v>
-      </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="G45">
-        <v>2024</v>
+        <v>2029</v>
       </c>
       <c r="H45">
-        <f>$D$5</f>
-        <v>2</v>
+        <f>$D$7</f>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>0.25</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
-        <v>2027</v>
+        <f t="shared" ref="K45" si="22">ROUNDDOWN(G45+H45+I45*(1-J45),0)</f>
+        <v>2030</v>
       </c>
       <c r="L45">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" ref="L45" si="23">K45-G45</f>
+        <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>118</v>
+      </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="F46" t="s">
         <v>67</v>
       </c>
       <c r="G46">
+        <f>$D$4+$D$5</f>
         <v>2024</v>
       </c>
       <c r="H46">
-        <f>$D$5</f>
+        <f>$D$6</f>
         <v>2</v>
       </c>
       <c r="I46">
@@ -5816,7 +5809,7 @@
         <v>0.25</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2027</v>
       </c>
       <c r="L46">
@@ -5827,38 +5820,71 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47">
+        <v>2024</v>
+      </c>
+      <c r="H47">
+        <f>$D$6</f>
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>0.25</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>2027</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H51" s="6" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H52" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I52" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H52" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I52" s="8">
-        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H53" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" s="8">
         <v>4</v>
-      </c>
-      <c r="I53" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H54" s="7" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="I54" s="8">
         <v>1</v>
@@ -5866,39 +5892,39 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H55" s="7" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I55" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H56" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I56" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H57" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I57" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H58" s="7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I58" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H59" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I59" s="8">
         <v>2</v>
@@ -5906,23 +5932,23 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H60" s="7" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="I60" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H61" s="7" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="I61" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H62" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I62" s="8">
         <v>4</v>
@@ -5930,31 +5956,31 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H63" s="7" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="I63" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H64" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="I64" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H65" s="7" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="I65" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H66" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I66" s="8">
         <v>2</v>
@@ -5962,7 +5988,7 @@
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H67" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I67" s="8">
         <v>2</v>
@@ -5970,30 +5996,38 @@
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H68" s="7" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="I68" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H69" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I69" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H70" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I70" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H71" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I71" s="8">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E9:E46" xr:uid="{57F1FF48-4396-4FE3-ABD9-234FB66F60F4}"/>
+  <autoFilter ref="E10:E47" xr:uid="{57F1FF48-4396-4FE3-ABD9-234FB66F60F4}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/fabrication_ports/ports_scenario_min.xlsx
+++ b/fabrication_ports/ports_scenario_min.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\fabrication_ports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133628C6-93CB-441D-A7DC-0D6181FFF5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE153AB3-8CF9-4A4F-A0F8-D834506493B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="2160" windowWidth="1980" windowHeight="970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg Demand Scenario" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Avg Demand Scenario'!$E$10:$E$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Avg Demand Scenario'!$F$10:$F$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId2"/>
+    <pivotCache cacheId="5" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="178">
   <si>
     <t>Port</t>
   </si>
@@ -394,9 +394,6 @@
     <t>Semisubmersible 3</t>
   </si>
   <si>
-    <t>Stationkeeping</t>
-  </si>
-  <si>
     <t>Mooring chain 1</t>
   </si>
   <si>
@@ -551,6 +548,30 @@
   </si>
   <si>
     <t>Floating date adder</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Port upgrade cost</t>
+  </si>
+  <si>
+    <t>Announced</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Mooring chain</t>
+  </si>
+  <si>
+    <t>Mooring rope</t>
+  </si>
+  <si>
+    <t>Production capacity</t>
+  </si>
+  <si>
+    <t>Facility cost</t>
   </si>
 </sst>
 </file>
@@ -881,7 +902,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Avg Demand Scenario'!$G$11:$G$47</c:f>
+              <c:f>'Avg Demand Scenario'!$H$11:$H$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1139,7 +1160,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Avg Demand Scenario'!$L$11:$L$47</c:f>
+              <c:f>'Avg Demand Scenario'!$M$11:$M$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1585,7 +1606,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Avg Demand Scenario'!$I$52</c:f>
+              <c:f>'Avg Demand Scenario'!$J$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1606,7 +1627,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Avg Demand Scenario'!$H$53:$H$71</c:f>
+              <c:f>'Avg Demand Scenario'!$I$53:$I$71</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
@@ -1668,7 +1689,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Avg Demand Scenario'!$I$53:$I$71</c:f>
+              <c:f>'Avg Demand Scenario'!$J$53:$J$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3052,7 +3073,7 @@
       <xdr:rowOff>58177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>244928</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
@@ -3082,13 +3103,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>898921</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>75008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>2458640</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>151208</xdr:rowOff>
@@ -3122,7 +3143,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shields, Matt" refreshedDate="44771.490716435183" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="39" xr:uid="{8520C2B9-52CF-46B0-8F6A-64DE6645DC34}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A10:L47" sheet="Avg Demand Scenario"/>
+    <worksheetSource ref="A10:M47" sheet="Avg Demand Scenario"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Component" numFmtId="0">
@@ -3741,8 +3762,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA5F775-FB12-4A7B-98B7-3842EC7091C4}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="H52:I71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA5F775-FB12-4A7B-98B7-3842EC7091C4}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="I52:J71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -4155,109 +4176,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F1FF48-4396-4FE3-ABD9-234FB66F60F4}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="42.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="82.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.1796875" customWidth="1"/>
+    <col min="5" max="5" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.26953125" customWidth="1"/>
+    <col min="15" max="15" width="26" customWidth="1"/>
+    <col min="16" max="16" width="24.6328125" customWidth="1"/>
+    <col min="17" max="17" width="82.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>94</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2023</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5">
+        <v>169</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>99</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7">
+        <v>167</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -4265,40 +4293,52 @@
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -4306,210 +4346,282 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>5</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2021</v>
       </c>
-      <c r="H11">
-        <f>$D$6</f>
+      <c r="I11">
+        <f>$E$6</f>
         <v>2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3</v>
       </c>
-      <c r="J11">
-        <f>$D$3</f>
+      <c r="K11">
+        <f>$E$3</f>
         <v>0.25</v>
       </c>
-      <c r="K11">
-        <f>ROUNDDOWN(G11+H11+I11*(1-J11),0)</f>
+      <c r="L11">
+        <f>ROUNDDOWN(H11+I11+J11*(1-K11),0)</f>
         <v>2025</v>
       </c>
-      <c r="L11">
-        <f>K11-G11</f>
+      <c r="M11">
+        <f>L11-H11</f>
         <v>4</v>
       </c>
+      <c r="N11">
+        <v>150</v>
+      </c>
+      <c r="O11">
+        <v>100</v>
+      </c>
+      <c r="P11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>5</v>
       </c>
-      <c r="G12">
-        <f>$D$4</f>
+      <c r="H12">
+        <f>$E$4</f>
         <v>2023</v>
       </c>
-      <c r="H12">
-        <f>$D$6</f>
+      <c r="I12">
+        <f>$E$6</f>
         <v>2</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3</v>
       </c>
-      <c r="J12">
-        <f t="shared" ref="J12:J15" si="0">$D$3</f>
+      <c r="K12">
+        <f t="shared" ref="K12:K15" si="0">$E$3</f>
         <v>0.25</v>
       </c>
-      <c r="K12">
-        <f>ROUNDDOWN(G12+H12+I12*(1-J12),0)</f>
+      <c r="L12">
+        <f>ROUNDDOWN(H12+I12+J12*(1-K12),0)</f>
         <v>2027</v>
       </c>
-      <c r="L12">
-        <f t="shared" ref="L12:L47" si="1">K12-G12</f>
+      <c r="M12">
+        <f t="shared" ref="M12:M47" si="1">L12-H12</f>
         <v>4</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12">
+        <v>150</v>
+      </c>
+      <c r="O12">
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <v>300</v>
+      </c>
+      <c r="Q12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="G13">
-        <f t="shared" ref="G13:G15" si="2">$D$4</f>
+      <c r="H13">
+        <f t="shared" ref="H13:H14" si="2">$E$4</f>
         <v>2023</v>
       </c>
-      <c r="H13">
-        <f>$D$6</f>
+      <c r="I13">
+        <f>$E$6</f>
         <v>2</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K13">
-        <f t="shared" ref="K13:K47" si="3">ROUNDDOWN(G13+H13+I13*(1-J13),0)</f>
+      <c r="L13">
+        <f t="shared" ref="L13:L47" si="3">ROUNDDOWN(H13+I13+J13*(1-K13),0)</f>
         <v>2027</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13">
+        <v>150</v>
+      </c>
+      <c r="O13">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <v>300</v>
+      </c>
+      <c r="Q13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>24</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="H14">
-        <f>$D$6</f>
+      <c r="I14">
+        <f>$E$6</f>
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f t="shared" si="3"/>
         <v>2027</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14">
+        <v>150</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>300</v>
+      </c>
+      <c r="Q14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
         <v>125</v>
       </c>
-      <c r="F15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15">
-        <f>$D$4+$D$5</f>
+      <c r="H15">
+        <f>$E$4+$E$5</f>
         <v>2024</v>
       </c>
-      <c r="H15">
-        <f>$D$6+$D$7</f>
+      <c r="I15">
+        <f>$E$6+$E$7</f>
         <v>3</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f t="shared" si="3"/>
         <v>2029</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="N15">
+        <v>150</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>300</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -4517,164 +4629,221 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" t="s">
         <v>47</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>24</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2021</v>
       </c>
-      <c r="H16">
-        <f>$D$6</f>
+      <c r="I16">
+        <f>$E$6</f>
         <v>2</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f t="shared" si="3"/>
         <v>2025</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16">
+        <v>150</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="P16">
+        <v>300</v>
+      </c>
+      <c r="Q16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
       <c r="B17" t="s">
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" t="s">
         <v>47</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>26</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>24</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2021</v>
       </c>
-      <c r="H17">
-        <f>$D$6</f>
+      <c r="I17">
+        <f>$E$6</f>
         <v>2</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f t="shared" si="3"/>
         <v>2025</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17">
+        <v>150</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="P17">
+        <v>300</v>
+      </c>
+      <c r="Q17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
       <c r="B18" t="s">
         <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>15</v>
       </c>
-      <c r="G18">
-        <f t="shared" ref="G18" si="4">$D$4</f>
+      <c r="H18">
+        <f t="shared" ref="H18" si="4">$E$4</f>
         <v>2023</v>
       </c>
-      <c r="H18">
-        <f>$D$6</f>
+      <c r="I18">
+        <f>$E$6</f>
         <v>2</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>3</v>
       </c>
-      <c r="J18">
-        <f t="shared" ref="J18" si="5">$D$3</f>
+      <c r="K18">
+        <f t="shared" ref="K18" si="5">$E$3</f>
         <v>0.25</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f t="shared" si="3"/>
         <v>2027</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="N18">
+        <v>150</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
+      </c>
+      <c r="P18">
+        <v>300</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" t="s">
-        <v>122</v>
+        <v>173</v>
+      </c>
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19">
+        <v>121</v>
+      </c>
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19">
         <v>2023</v>
       </c>
-      <c r="H19">
-        <f>$D$6+$D$7</f>
+      <c r="I19">
+        <f>$E$6+$E$7</f>
         <v>3</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.25</v>
       </c>
-      <c r="K19">
-        <f t="shared" ref="K19" si="6">ROUNDDOWN(G19+H19+I19*(1-J19),0)</f>
+      <c r="L19">
+        <f t="shared" ref="L19" si="6">ROUNDDOWN(H19+I19+J19*(1-K19),0)</f>
         <v>2028</v>
       </c>
-      <c r="L19">
-        <f t="shared" ref="L19" si="7">K19-G19</f>
+      <c r="M19">
+        <f t="shared" ref="M19" si="7">L19-H19</f>
         <v>5</v>
       </c>
+      <c r="N19">
+        <v>150</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <v>300</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -4682,169 +4851,226 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>23</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>24</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2021</v>
       </c>
-      <c r="H20">
-        <f>$D$6</f>
+      <c r="I20">
+        <f>$E$6</f>
         <v>2</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.8</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f t="shared" si="3"/>
         <v>2023</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20">
+        <v>150</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+      <c r="P20">
+        <v>300</v>
+      </c>
+      <c r="Q20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>6</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>5</v>
       </c>
-      <c r="G21">
-        <f t="shared" ref="G21:G23" si="8">$D$4</f>
+      <c r="H21">
+        <f t="shared" ref="H21:H22" si="8">$E$4</f>
         <v>2023</v>
       </c>
-      <c r="H21">
-        <f>$D$6</f>
+      <c r="I21">
+        <f>$E$6</f>
         <v>2</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2</v>
       </c>
-      <c r="J21">
-        <f t="shared" ref="J21:J23" si="9">$D$3</f>
+      <c r="K21">
+        <f t="shared" ref="K21:K23" si="9">$E$3</f>
         <v>0.25</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f t="shared" si="3"/>
         <v>2026</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21">
+        <v>150</v>
+      </c>
+      <c r="O21">
+        <v>100</v>
+      </c>
+      <c r="P21">
+        <v>300</v>
+      </c>
+      <c r="Q21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
       <c r="B22" t="s">
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>19</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="8"/>
         <v>2023</v>
       </c>
-      <c r="H22">
-        <f>$D$6</f>
+      <c r="I22">
+        <f>$E$6</f>
         <v>2</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f t="shared" si="3"/>
         <v>2026</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22">
+        <v>150</v>
+      </c>
+      <c r="O22">
+        <v>100</v>
+      </c>
+      <c r="P22">
+        <v>300</v>
+      </c>
+      <c r="Q22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" t="s">
-        <v>122</v>
+        <v>173</v>
+      </c>
+      <c r="D23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23">
-        <f>$D$4+$D$5</f>
+        <v>121</v>
+      </c>
+      <c r="G23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23">
+        <f>$E$4+$E$5</f>
         <v>2024</v>
       </c>
-      <c r="H23">
-        <f>$D$6+$D$7</f>
+      <c r="I23">
+        <f>$E$6+$E$7</f>
         <v>3</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
-      <c r="K23">
-        <f t="shared" ref="K23" si="10">ROUNDDOWN(G23+H23+I23*(1-J23),0)</f>
+      <c r="L23">
+        <f t="shared" ref="L23" si="10">ROUNDDOWN(H23+I23+J23*(1-K23),0)</f>
         <v>2028</v>
       </c>
-      <c r="L23">
-        <f t="shared" ref="L23" si="11">K23-G23</f>
+      <c r="M23">
+        <f t="shared" ref="M23" si="11">L23-H23</f>
         <v>4</v>
       </c>
+      <c r="N23">
+        <v>150</v>
+      </c>
+      <c r="O23">
+        <v>100</v>
+      </c>
+      <c r="P23">
+        <v>300</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -4852,85 +5078,112 @@
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>26</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>24</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2020</v>
       </c>
-      <c r="H24">
-        <f>$D$6</f>
+      <c r="I24">
+        <f>$E$6</f>
         <v>2</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.5</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <f t="shared" si="3"/>
         <v>2023</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24">
+        <v>150</v>
+      </c>
+      <c r="O24">
+        <v>100</v>
+      </c>
+      <c r="P24">
+        <v>300</v>
+      </c>
+      <c r="Q24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
       <c r="B25" t="s">
         <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>6</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>5</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2021</v>
       </c>
-      <c r="H25">
-        <f>$D$6</f>
+      <c r="I25">
+        <f>$E$6</f>
         <v>2</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>3.5</v>
       </c>
-      <c r="J25">
-        <f t="shared" ref="J25:J26" si="12">$D$3</f>
+      <c r="K25">
+        <f t="shared" ref="K25:K26" si="12">$E$3</f>
         <v>0.25</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <f t="shared" si="3"/>
         <v>2025</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25">
+        <v>150</v>
+      </c>
+      <c r="O25">
+        <v>100</v>
+      </c>
+      <c r="P25">
+        <v>300</v>
+      </c>
+      <c r="Q25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -4938,45 +5191,57 @@
         <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>22</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>67</v>
       </c>
-      <c r="G26">
-        <f t="shared" ref="G26" si="13">$D$4</f>
+      <c r="H26">
+        <f t="shared" ref="H26" si="13">$E$4</f>
         <v>2023</v>
       </c>
-      <c r="H26">
-        <f>$D$6</f>
+      <c r="I26">
+        <f>$E$6</f>
         <v>2</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="K26">
-        <f>ROUNDDOWN(G26+H26+I26*(1-J26),0)</f>
+      <c r="L26">
+        <f>ROUNDDOWN(H26+I26+J26*(1-K26),0)</f>
         <v>2025</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26">
+        <v>150</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+      <c r="P26">
+        <v>300</v>
+      </c>
+      <c r="Q26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -4984,42 +5249,54 @@
         <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>10</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>5</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2025</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>2</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0</v>
       </c>
-      <c r="K27">
-        <f>ROUNDDOWN(G27+H27+I27*(1-J27),0)</f>
+      <c r="L27">
+        <f>ROUNDDOWN(H27+I27+J27*(1-K27),0)</f>
         <v>2028</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27">
+        <v>150</v>
+      </c>
+      <c r="O27">
+        <v>100</v>
+      </c>
+      <c r="P27">
+        <v>300</v>
+      </c>
+      <c r="Q27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -5027,86 +5304,113 @@
         <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>23</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>24</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2021</v>
       </c>
-      <c r="H28">
-        <f>$D$6</f>
+      <c r="I28">
+        <f t="shared" ref="I28:I37" si="14">$E$6</f>
         <v>2</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.25</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <f t="shared" si="3"/>
         <v>2024</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28">
+        <v>150</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+      <c r="P28">
+        <v>300</v>
+      </c>
+      <c r="Q28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
       <c r="B29" t="s">
         <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>23</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>24</v>
       </c>
-      <c r="G29">
-        <f t="shared" ref="G29" si="14">$D$4</f>
+      <c r="H29">
+        <f t="shared" ref="H29" si="15">$E$4</f>
         <v>2023</v>
       </c>
-      <c r="H29">
-        <f>$D$6</f>
+      <c r="I29">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2</v>
       </c>
-      <c r="J29">
-        <f t="shared" ref="J29:J31" si="15">$D$3</f>
+      <c r="K29">
+        <f t="shared" ref="K29:K31" si="16">$E$3</f>
         <v>0.25</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <f t="shared" si="3"/>
         <v>2026</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29">
+        <v>150</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+      <c r="P29">
+        <v>300</v>
+      </c>
+      <c r="Q29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -5114,84 +5418,111 @@
         <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>6</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>5</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2021</v>
       </c>
-      <c r="H30">
-        <f>$D$6</f>
+      <c r="I30">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>4</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="15"/>
+      <c r="K30">
+        <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <f t="shared" si="3"/>
         <v>2026</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="N30">
+        <v>150</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+      <c r="P30">
+        <v>300</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
       <c r="B31" t="s">
         <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>23</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>24</v>
       </c>
-      <c r="G31">
-        <f t="shared" ref="G31" si="16">$D$4</f>
+      <c r="H31">
+        <f t="shared" ref="H31" si="17">$E$4</f>
         <v>2023</v>
       </c>
-      <c r="H31">
-        <f>$D$6</f>
+      <c r="I31">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>4</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="15"/>
+      <c r="K31">
+        <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <f t="shared" si="3"/>
         <v>2028</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31">
+        <v>150</v>
+      </c>
+      <c r="O31">
+        <v>100</v>
+      </c>
+      <c r="P31">
+        <v>300</v>
+      </c>
+      <c r="Q31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -5199,164 +5530,221 @@
         <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>12</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>5</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2018</v>
       </c>
-      <c r="H32">
-        <f>$D$6</f>
+      <c r="I32">
+        <f t="shared" si="14"/>
         <v>2</v>
-      </c>
-      <c r="I32" t="s">
-        <v>80</v>
       </c>
       <c r="J32" t="s">
         <v>80</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="s">
+        <v>80</v>
+      </c>
+      <c r="L32">
         <v>2020</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32">
+        <v>150</v>
+      </c>
+      <c r="O32">
+        <v>100</v>
+      </c>
+      <c r="P32">
+        <v>300</v>
+      </c>
+      <c r="Q32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
       <c r="B33" t="s">
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>15</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>2021</v>
       </c>
-      <c r="H33">
-        <f>$D$6</f>
+      <c r="I33">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>4</v>
       </c>
-      <c r="J33">
-        <f t="shared" ref="J33:J37" si="17">$D$3</f>
+      <c r="K33">
+        <f t="shared" ref="K33:K37" si="18">$E$3</f>
         <v>0.25</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <f t="shared" si="3"/>
         <v>2026</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="N33">
+        <v>150</v>
+      </c>
+      <c r="O33">
+        <v>100</v>
+      </c>
+      <c r="P33">
+        <v>300</v>
+      </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
       <c r="B34" t="s">
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>17</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="G34">
-        <f t="shared" ref="G34:G35" si="18">$D$4</f>
+      <c r="H34">
+        <f t="shared" ref="H34:H35" si="19">$E$4</f>
         <v>2023</v>
       </c>
-      <c r="H34">
-        <f>$D$6</f>
+      <c r="I34">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>4</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="17"/>
+      <c r="K34">
+        <f t="shared" si="18"/>
         <v>0.25</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <f t="shared" si="3"/>
         <v>2028</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34">
+        <v>150</v>
+      </c>
+      <c r="O34">
+        <v>100</v>
+      </c>
+      <c r="P34">
+        <v>300</v>
+      </c>
+      <c r="Q34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
       <c r="B35" t="s">
         <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D35" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>12</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>5</v>
       </c>
-      <c r="G35">
+      <c r="H35">
+        <f t="shared" si="19"/>
+        <v>2023</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="18"/>
-        <v>2023</v>
-      </c>
-      <c r="H35">
-        <f>$D$6</f>
-        <v>2</v>
-      </c>
-      <c r="I35">
-        <v>4</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <f t="shared" si="3"/>
         <v>2028</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="N35">
+        <v>150</v>
+      </c>
+      <c r="O35">
+        <v>100</v>
+      </c>
+      <c r="P35">
+        <v>300</v>
+      </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -5364,81 +5752,108 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>90</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>5</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>2021</v>
       </c>
-      <c r="H36">
-        <f>$D$6</f>
+      <c r="I36">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>2</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="17"/>
+      <c r="K36">
+        <f t="shared" si="18"/>
         <v>0.25</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <f t="shared" si="3"/>
         <v>2024</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="N36">
+        <v>150</v>
+      </c>
+      <c r="O36">
+        <v>100</v>
+      </c>
+      <c r="P36">
+        <v>300</v>
+      </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
       <c r="B37" t="s">
         <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" t="s">
         <v>3</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>4</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>5</v>
       </c>
-      <c r="G37">
-        <f t="shared" ref="G37:G39" si="19">$D$4</f>
+      <c r="H37">
+        <f t="shared" ref="H37:H39" si="20">$E$4</f>
         <v>2023</v>
       </c>
-      <c r="H37">
-        <f>$D$6</f>
+      <c r="I37">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>4</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="17"/>
+      <c r="K37">
+        <f t="shared" si="18"/>
         <v>0.25</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <f t="shared" si="3"/>
         <v>2028</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="N37">
+        <v>150</v>
+      </c>
+      <c r="O37">
+        <v>100</v>
+      </c>
+      <c r="P37">
+        <v>300</v>
+      </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -5446,84 +5861,108 @@
         <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" t="s">
         <v>111</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>112</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="19"/>
+      <c r="H38">
+        <f t="shared" si="20"/>
         <v>2023</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>2</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <f t="shared" si="3"/>
         <v>2025</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38">
+        <v>150</v>
+      </c>
+      <c r="O38">
+        <v>100</v>
+      </c>
+      <c r="P38">
+        <v>300</v>
+      </c>
+      <c r="Q38" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" t="s">
         <v>131</v>
       </c>
-      <c r="B39" t="s">
-        <v>132</v>
-      </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E39" t="s">
         <v>133</v>
       </c>
       <c r="F39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="19"/>
+      <c r="H39">
+        <f t="shared" si="20"/>
         <v>2023</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>3</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>1</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.25</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <f t="shared" si="3"/>
         <v>2026</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M39" t="s">
-        <v>169</v>
+      <c r="N39">
+        <v>150</v>
+      </c>
+      <c r="O39">
+        <v>100</v>
+      </c>
+      <c r="P39">
+        <v>300</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -5531,503 +5970,617 @@
         <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40">
-        <f>$D$4+$D$5</f>
+        <v>121</v>
+      </c>
+      <c r="G40" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40">
+        <f>$E$4+$E$5</f>
         <v>2024</v>
       </c>
-      <c r="H40">
-        <f>$D$6+$D$7</f>
+      <c r="I40">
+        <f>$E$6+$E$7</f>
         <v>3</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>1</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>0.25</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <f t="shared" si="3"/>
         <v>2027</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M40" t="s">
-        <v>136</v>
+      <c r="N40">
+        <v>150</v>
+      </c>
+      <c r="O40">
+        <v>100</v>
+      </c>
+      <c r="P40">
+        <v>300</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
       <c r="B41" t="s">
         <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
-      </c>
-      <c r="G41">
-        <f>$D$4+$D$5</f>
+        <v>121</v>
+      </c>
+      <c r="G41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41">
+        <f>$E$4+$E$5</f>
         <v>2024</v>
       </c>
-      <c r="H41">
-        <f>$D$6+$D$7</f>
+      <c r="I41">
+        <f>$E$6+$E$7</f>
         <v>3</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>1</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>0.25</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <f t="shared" si="3"/>
         <v>2027</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M41" t="s">
-        <v>136</v>
+      <c r="N41">
+        <v>150</v>
+      </c>
+      <c r="O41">
+        <v>100</v>
+      </c>
+      <c r="P41">
+        <v>300</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
       <c r="B42" t="s">
         <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" t="s">
         <v>125</v>
       </c>
-      <c r="F42" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42">
-        <f>$D$4+$D$5</f>
+      <c r="H42">
+        <f>$E$4+$E$5</f>
         <v>2024</v>
       </c>
-      <c r="H42">
-        <f>$D$6+$D$7</f>
+      <c r="I42">
+        <f>$E$6+$E$7</f>
         <v>3</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>1</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>0.25</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <f t="shared" si="3"/>
         <v>2027</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42">
+        <v>150</v>
+      </c>
+      <c r="O42">
+        <v>100</v>
+      </c>
+      <c r="P42">
+        <v>300</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43">
+        <v>2031</v>
+      </c>
+      <c r="I43">
+        <f>$E$7</f>
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0.25</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ref="L43:L44" si="21">ROUNDDOWN(H43+I43+J43*(1-K43),0)</f>
+        <v>2032</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ref="M43:M44" si="22">L43-H43</f>
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>150</v>
+      </c>
+      <c r="O43">
+        <v>100</v>
+      </c>
+      <c r="P43">
+        <v>300</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G43">
-        <v>2031</v>
-      </c>
-      <c r="H43">
-        <f>$D$7</f>
+      <c r="C44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>2030</v>
+      </c>
+      <c r="I44">
+        <f>$E$7</f>
         <v>1</v>
       </c>
-      <c r="I43">
+      <c r="J44">
         <v>1</v>
       </c>
-      <c r="J43">
+      <c r="K44">
         <v>0.25</v>
-      </c>
-      <c r="K43">
-        <f t="shared" ref="K43:K44" si="20">ROUNDDOWN(G43+H43+I43*(1-J43),0)</f>
-        <v>2032</v>
-      </c>
-      <c r="L43">
-        <f t="shared" ref="L43:L44" si="21">K43-G43</f>
-        <v>1</v>
-      </c>
-      <c r="M43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44">
-        <v>2030</v>
-      </c>
-      <c r="H44">
-        <f>$D$7</f>
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>0.25</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="20"/>
-        <v>2031</v>
       </c>
       <c r="L44">
         <f t="shared" si="21"/>
+        <v>2031</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="M44" t="s">
-        <v>136</v>
+      <c r="N44">
+        <v>150</v>
+      </c>
+      <c r="O44">
+        <v>100</v>
+      </c>
+      <c r="P44">
+        <v>300</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" t="s">
         <v>18</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>19</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>15</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>2029</v>
       </c>
-      <c r="H45">
-        <f>$D$7</f>
+      <c r="I45">
+        <f>$E$7</f>
         <v>1</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>1</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>0.25</v>
       </c>
-      <c r="K45">
-        <f t="shared" ref="K45" si="22">ROUNDDOWN(G45+H45+I45*(1-J45),0)</f>
+      <c r="L45">
+        <f t="shared" ref="L45" si="23">ROUNDDOWN(H45+I45+J45*(1-K45),0)</f>
         <v>2030</v>
       </c>
-      <c r="L45">
-        <f t="shared" ref="L45" si="23">K45-G45</f>
+      <c r="M45">
+        <f t="shared" ref="M45" si="24">L45-H45</f>
         <v>1</v>
       </c>
-      <c r="M45" t="s">
-        <v>136</v>
+      <c r="N45">
+        <v>150</v>
+      </c>
+      <c r="O45">
+        <v>100</v>
+      </c>
+      <c r="P45">
+        <v>300</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" t="s">
         <v>118</v>
       </c>
-      <c r="B46" t="s">
-        <v>119</v>
-      </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" t="s">
         <v>138</v>
       </c>
-      <c r="E46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>67</v>
       </c>
-      <c r="G46">
-        <f>$D$4+$D$5</f>
+      <c r="H46">
+        <f>$E$4+$E$5</f>
         <v>2024</v>
       </c>
-      <c r="H46">
-        <f>$D$6</f>
+      <c r="I46">
+        <f>$E$6</f>
         <v>2</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>2</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>0.25</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <f t="shared" si="3"/>
         <v>2027</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M46" t="s">
-        <v>141</v>
+      <c r="N46">
+        <v>150</v>
+      </c>
+      <c r="O46">
+        <v>100</v>
+      </c>
+      <c r="P46">
+        <v>300</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>175</v>
+      </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="D47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" t="s">
         <v>21</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>22</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>67</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>2024</v>
       </c>
-      <c r="H47">
-        <f>$D$6</f>
+      <c r="I47">
+        <f>$E$6</f>
         <v>2</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>2</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>0.25</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <f t="shared" si="3"/>
         <v>2027</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M47" t="s">
-        <v>141</v>
+      <c r="N47">
+        <v>150</v>
+      </c>
+      <c r="O47">
+        <v>100</v>
+      </c>
+      <c r="P47">
+        <v>300</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H52" s="6" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I52" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H53" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I53" s="8">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I53" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J53" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H54" s="7" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I54" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="8">
+      <c r="J54" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H55" s="7" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I55" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I55" s="8">
+      <c r="J55" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H56" s="7" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I56" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I56" s="8">
+      <c r="J56" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H57" s="7" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="8">
+      <c r="J57" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H58" s="7" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I58" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I58" s="8">
+      <c r="J58" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H59" s="7" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I59" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="8">
+      <c r="J59" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H60" s="7" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="8">
+      <c r="J60" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H61" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I61" s="8">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I61" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J61" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H62" s="7" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I62" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="8">
+      <c r="J62" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H63" s="7" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I63" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I63" s="8">
+      <c r="J63" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H64" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I64" s="8">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I64" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J64" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H65" s="7" t="s">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I65" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I65" s="8">
+      <c r="J65" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H66" s="7" t="s">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I66" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I66" s="8">
+      <c r="J66" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H67" s="7" t="s">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I67" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I67" s="8">
+      <c r="J67" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H68" s="7" t="s">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I68" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I68" s="8">
+      <c r="J68" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H69" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I69" s="8">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I69" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J69" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H70" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I70" s="8">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I70" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J70" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H71" s="7" t="s">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I71" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I71" s="8">
+      <c r="J71" s="8">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E10:E47" xr:uid="{57F1FF48-4396-4FE3-ABD9-234FB66F60F4}"/>
+  <autoFilter ref="F10:F47" xr:uid="{57F1FF48-4396-4FE3-ABD9-234FB66F60F4}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/fabrication_ports/ports_scenario_min.xlsx
+++ b/fabrication_ports/ports_scenario_min.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\fabrication_ports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE153AB3-8CF9-4A4F-A0F8-D834506493B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE274888-DD80-4D9D-AAEB-B2D883B715C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg Demand Scenario" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="179">
   <si>
     <t>Port</t>
   </si>
@@ -433,9 +433,6 @@
     <t>Flange</t>
   </si>
   <si>
-    <t>Flange 1</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -572,13 +569,19 @@
   </si>
   <si>
     <t>Facility cost</t>
+  </si>
+  <si>
+    <t>Expected opration in 2022</t>
+  </si>
+  <si>
+    <t>USFR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,6 +607,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -659,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -677,6 +687,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,7 +882,7 @@
                   <c:v>Casting 1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Flange 1</c:v>
+                  <c:v>USFR</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>Semisubmersible 1</c:v>
@@ -1129,7 +1140,7 @@
                   <c:v>Casting 1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Flange 1</c:v>
+                  <c:v>USFR</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>Semisubmersible 1</c:v>
@@ -1180,10 +1191,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
@@ -1195,16 +1206,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4</c:v>
@@ -1216,13 +1227,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5</c:v>
@@ -1240,16 +1251,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3</c:v>
@@ -4178,8 +4189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F1FF48-4396-4FE3-ABD9-234FB66F60F4}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4233,7 +4244,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4255,7 +4266,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4293,10 +4304,10 @@
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>0</v>
@@ -4326,13 +4337,13 @@
         <v>39</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>40</v>
@@ -4346,10 +4357,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -4386,10 +4397,10 @@
         <v>150</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="P11">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -4400,10 +4411,10 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
@@ -4441,10 +4452,10 @@
         <v>150</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="P12">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q12" t="s">
         <v>44</v>
@@ -4458,10 +4469,10 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -4499,10 +4510,10 @@
         <v>150</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="P13">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q13" t="s">
         <v>44</v>
@@ -4516,10 +4527,10 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>47</v>
@@ -4557,10 +4568,10 @@
         <v>150</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="P14">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q14" t="s">
         <v>48</v>
@@ -4574,10 +4585,10 @@
         <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>128</v>
@@ -4615,10 +4626,10 @@
         <v>150</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="P15">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -4629,10 +4640,10 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
         <v>47</v>
@@ -4647,8 +4658,7 @@
         <v>2021</v>
       </c>
       <c r="I16">
-        <f>$E$6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>3</v>
@@ -4659,11 +4669,11 @@
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16">
         <v>150</v>
@@ -4672,7 +4682,7 @@
         <v>100</v>
       </c>
       <c r="P16">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q16" t="s">
         <v>96</v>
@@ -4686,10 +4696,10 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
@@ -4704,8 +4714,7 @@
         <v>2021</v>
       </c>
       <c r="I17">
-        <f>$E$6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -4716,11 +4725,11 @@
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17">
         <v>150</v>
@@ -4729,7 +4738,7 @@
         <v>100</v>
       </c>
       <c r="P17">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q17" t="s">
         <v>96</v>
@@ -4743,10 +4752,10 @@
         <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>29</v>
@@ -4787,7 +4796,7 @@
         <v>100</v>
       </c>
       <c r="P18">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -4798,10 +4807,10 @@
         <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>126</v>
@@ -4840,7 +4849,7 @@
         <v>100</v>
       </c>
       <c r="P19">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -4851,10 +4860,10 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>25</v>
@@ -4873,7 +4882,7 @@
         <v>2</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20">
         <v>0.8</v>
@@ -4890,7 +4899,7 @@
         <v>150</v>
       </c>
       <c r="O20">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P20">
         <v>300</v>
@@ -4907,10 +4916,10 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>57</v>
@@ -4930,7 +4939,7 @@
         <v>2</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21">
         <f t="shared" ref="K21:K23" si="9">$E$3</f>
@@ -4938,11 +4947,11 @@
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21">
         <v>150</v>
@@ -4951,7 +4960,7 @@
         <v>100</v>
       </c>
       <c r="P21">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q21" t="s">
         <v>58</v>
@@ -4965,10 +4974,10 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>18</v>
@@ -4988,7 +4997,7 @@
         <v>2</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22">
         <f t="shared" si="9"/>
@@ -4996,11 +5005,11 @@
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22">
         <v>150</v>
@@ -5009,7 +5018,7 @@
         <v>100</v>
       </c>
       <c r="P22">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q22" t="s">
         <v>60</v>
@@ -5023,10 +5032,10 @@
         <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>126</v>
@@ -5046,7 +5055,7 @@
         <v>3</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23">
         <f t="shared" si="9"/>
@@ -5054,11 +5063,11 @@
       </c>
       <c r="L23">
         <f t="shared" ref="L23" si="10">ROUNDDOWN(H23+I23+J23*(1-K23),0)</f>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="M23">
         <f t="shared" ref="M23" si="11">L23-H23</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23">
         <v>150</v>
@@ -5067,7 +5076,7 @@
         <v>100</v>
       </c>
       <c r="P23">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -5078,10 +5087,10 @@
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>27</v>
@@ -5100,18 +5109,18 @@
         <v>2</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K24">
         <v>0.5</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24">
         <v>150</v>
@@ -5120,7 +5129,7 @@
         <v>100</v>
       </c>
       <c r="P24">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q24" t="s">
         <v>55</v>
@@ -5134,10 +5143,10 @@
         <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>57</v>
@@ -5191,10 +5200,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>21</v>
@@ -5232,10 +5241,10 @@
         <v>150</v>
       </c>
       <c r="O26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P26">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="Q26" t="s">
         <v>68</v>
@@ -5249,10 +5258,10 @@
         <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>86</v>
@@ -5287,10 +5296,10 @@
         <v>150</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P27">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="Q27" t="s">
         <v>107</v>
@@ -5304,10 +5313,10 @@
         <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>25</v>
@@ -5322,8 +5331,7 @@
         <v>2021</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28:I37" si="14">$E$6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -5333,11 +5341,11 @@
       </c>
       <c r="L28">
         <f t="shared" si="3"/>
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28">
         <v>150</v>
@@ -5346,7 +5354,7 @@
         <v>100</v>
       </c>
       <c r="P28">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q28" t="s">
         <v>55</v>
@@ -5360,10 +5368,10 @@
         <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -5375,11 +5383,11 @@
         <v>24</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29" si="15">$E$4</f>
+        <f t="shared" ref="H29" si="14">$E$4</f>
         <v>2023</v>
       </c>
       <c r="I29">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="I28:I37" si="15">$E$6</f>
         <v>2</v>
       </c>
       <c r="J29">
@@ -5418,10 +5426,10 @@
         <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>57</v>
@@ -5436,11 +5444,11 @@
         <v>2021</v>
       </c>
       <c r="I30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K30">
         <f t="shared" si="16"/>
@@ -5448,20 +5456,20 @@
       </c>
       <c r="L30">
         <f t="shared" si="3"/>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="M30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>150</v>
       </c>
       <c r="O30">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="P30">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -5472,10 +5480,10 @@
         <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>28</v>
@@ -5491,7 +5499,7 @@
         <v>2023</v>
       </c>
       <c r="I31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J31">
@@ -5513,10 +5521,10 @@
         <v>150</v>
       </c>
       <c r="O31">
-        <v>100</v>
+        <v>850</v>
       </c>
       <c r="P31">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q31" t="s">
         <v>76</v>
@@ -5530,10 +5538,10 @@
         <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>79</v>
@@ -5548,7 +5556,7 @@
         <v>2018</v>
       </c>
       <c r="I32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J32" t="s">
@@ -5568,10 +5576,10 @@
         <v>150</v>
       </c>
       <c r="O32">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P32">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q32" t="s">
         <v>81</v>
@@ -5585,10 +5593,10 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>13</v>
@@ -5603,7 +5611,7 @@
         <v>2021</v>
       </c>
       <c r="I33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J33">
@@ -5625,10 +5633,10 @@
         <v>150</v>
       </c>
       <c r="O33">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P33">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -5639,10 +5647,10 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>16</v>
@@ -5658,7 +5666,7 @@
         <v>2023</v>
       </c>
       <c r="I34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J34">
@@ -5679,11 +5687,11 @@
       <c r="N34">
         <v>150</v>
       </c>
-      <c r="O34">
-        <v>100</v>
+      <c r="O34" s="9">
+        <v>500</v>
       </c>
       <c r="P34">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q34" t="s">
         <v>84</v>
@@ -5697,10 +5705,10 @@
         <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -5716,7 +5724,7 @@
         <v>2023</v>
       </c>
       <c r="I35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J35">
@@ -5737,11 +5745,11 @@
       <c r="N35">
         <v>150</v>
       </c>
-      <c r="O35">
-        <v>100</v>
+      <c r="O35" s="9">
+        <v>500</v>
       </c>
       <c r="P35">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -5752,10 +5760,10 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>89</v>
@@ -5770,8 +5778,7 @@
         <v>2021</v>
       </c>
       <c r="I36">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -5782,20 +5789,23 @@
       </c>
       <c r="L36">
         <f t="shared" si="3"/>
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="M36">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>150</v>
       </c>
       <c r="O36">
-        <v>100</v>
+        <v>60000</v>
       </c>
       <c r="P36">
-        <v>300</v>
+        <v>1000</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -5806,10 +5816,10 @@
         <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
@@ -5825,11 +5835,11 @@
         <v>2023</v>
       </c>
       <c r="I37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K37">
         <f t="shared" si="18"/>
@@ -5837,20 +5847,20 @@
       </c>
       <c r="L37">
         <f t="shared" si="3"/>
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="M37">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37">
         <v>150</v>
       </c>
       <c r="O37">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="P37">
-        <v>300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -5861,10 +5871,10 @@
         <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F38" t="s">
         <v>111</v>
@@ -5896,11 +5906,11 @@
       <c r="N38">
         <v>150</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="9">
+        <v>700</v>
+      </c>
+      <c r="P38">
         <v>100</v>
-      </c>
-      <c r="P38">
-        <v>300</v>
       </c>
       <c r="Q38" t="s">
         <v>113</v>
@@ -5911,19 +5921,19 @@
         <v>130</v>
       </c>
       <c r="B39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" t="s">
         <v>131</v>
-      </c>
-      <c r="C39" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" t="s">
-        <v>132</v>
       </c>
       <c r="G39" t="s">
         <v>15</v>
@@ -5933,33 +5943,33 @@
         <v>2023</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39">
         <v>0.25</v>
       </c>
       <c r="L39">
         <f t="shared" si="3"/>
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="M39">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N39">
         <v>150</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="9">
+        <v>5000</v>
+      </c>
+      <c r="P39">
         <v>100</v>
       </c>
-      <c r="P39">
-        <v>300</v>
-      </c>
       <c r="Q39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -5970,10 +5980,10 @@
         <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
         <v>126</v>
@@ -6010,13 +6020,13 @@
         <v>150</v>
       </c>
       <c r="O40">
+        <v>50</v>
+      </c>
+      <c r="P40">
         <v>100</v>
       </c>
-      <c r="P40">
-        <v>300</v>
-      </c>
       <c r="Q40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -6027,10 +6037,10 @@
         <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E41" t="s">
         <v>127</v>
@@ -6067,13 +6077,13 @@
         <v>150</v>
       </c>
       <c r="O41">
+        <v>50</v>
+      </c>
+      <c r="P41">
         <v>100</v>
       </c>
-      <c r="P41">
-        <v>300</v>
-      </c>
       <c r="Q41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
@@ -6084,10 +6094,10 @@
         <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E42" t="s">
         <v>128</v>
@@ -6124,13 +6134,13 @@
         <v>150</v>
       </c>
       <c r="O42">
+        <v>50</v>
+      </c>
+      <c r="P42">
         <v>100</v>
       </c>
-      <c r="P42">
-        <v>300</v>
-      </c>
       <c r="Q42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -6138,13 +6148,13 @@
         <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
@@ -6180,13 +6190,13 @@
         <v>150</v>
       </c>
       <c r="O43">
+        <v>50</v>
+      </c>
+      <c r="P43">
         <v>100</v>
       </c>
-      <c r="P43">
-        <v>300</v>
-      </c>
       <c r="Q43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -6194,13 +6204,13 @@
         <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -6236,13 +6246,13 @@
         <v>150</v>
       </c>
       <c r="O44">
+        <v>50</v>
+      </c>
+      <c r="P44">
         <v>100</v>
       </c>
-      <c r="P44">
-        <v>300</v>
-      </c>
       <c r="Q44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -6250,13 +6260,13 @@
         <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
@@ -6292,33 +6302,33 @@
         <v>150</v>
       </c>
       <c r="O45">
+        <v>50</v>
+      </c>
+      <c r="P45">
         <v>100</v>
       </c>
-      <c r="P45">
-        <v>300</v>
-      </c>
       <c r="Q45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
         <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" t="s">
         <v>137</v>
-      </c>
-      <c r="F46" t="s">
-        <v>138</v>
       </c>
       <c r="G46" t="s">
         <v>67</v>
@@ -6349,27 +6359,27 @@
         <v>150</v>
       </c>
       <c r="O46">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="P46">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="Q46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
         <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
@@ -6405,13 +6415,13 @@
         <v>150</v>
       </c>
       <c r="O47">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="P47">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="Q47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
@@ -6493,7 +6503,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I61" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J61" s="8">
         <v>1</v>
@@ -6565,7 +6575,7 @@
     </row>
     <row r="70" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I70" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J70" s="8">
         <v>2</v>

--- a/fabrication_ports/ports_scenario_min.xlsx
+++ b/fabrication_ports/ports_scenario_min.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\fabrication_ports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE274888-DD80-4D9D-AAEB-B2D883B715C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8168957-1A85-4B46-AEB9-EBC6775D6EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg Demand Scenario" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId2"/>
+    <pivotCache cacheId="9" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="180">
   <si>
     <t>Port</t>
   </si>
@@ -575,13 +575,16 @@
   </si>
   <si>
     <t>USFR</t>
+  </si>
+  <si>
+    <t>HVDC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +617,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -669,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -688,6 +697,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1233,7 +1243,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5</c:v>
@@ -3773,7 +3783,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA5F775-FB12-4A7B-98B7-3842EC7091C4}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA5F775-FB12-4A7B-98B7-3842EC7091C4}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="I52:J71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -4189,8 +4199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F1FF48-4396-4FE3-ABD9-234FB66F60F4}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4397,10 +4407,10 @@
         <v>150</v>
       </c>
       <c r="O11">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="P11">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -4452,10 +4462,10 @@
         <v>150</v>
       </c>
       <c r="O12">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="P12">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q12" t="s">
         <v>44</v>
@@ -4510,10 +4520,10 @@
         <v>150</v>
       </c>
       <c r="O13">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="P13">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q13" t="s">
         <v>44</v>
@@ -4568,10 +4578,10 @@
         <v>150</v>
       </c>
       <c r="O14">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="P14">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q14" t="s">
         <v>48</v>
@@ -4626,10 +4636,10 @@
         <v>150</v>
       </c>
       <c r="O15">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="P15">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -5387,7 +5397,7 @@
         <v>2023</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I28:I37" si="15">$E$6</f>
+        <f t="shared" ref="I29:I37" si="15">$E$6</f>
         <v>2</v>
       </c>
       <c r="J29">
@@ -5448,7 +5458,7 @@
         <v>2</v>
       </c>
       <c r="J30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K30">
         <f t="shared" si="16"/>
@@ -5456,11 +5466,11 @@
       </c>
       <c r="L30">
         <f t="shared" si="3"/>
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="M30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N30">
         <v>150</v>
@@ -5503,7 +5513,7 @@
         <v>2</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31">
         <f t="shared" si="16"/>
@@ -5521,10 +5531,10 @@
         <v>150</v>
       </c>
       <c r="O31">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="P31">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q31" t="s">
         <v>76</v>
@@ -5575,7 +5585,7 @@
       <c r="N32">
         <v>150</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="10">
         <v>200</v>
       </c>
       <c r="P32">
@@ -5615,7 +5625,7 @@
         <v>2</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K33">
         <f t="shared" ref="K33:K37" si="18">$E$3</f>
@@ -5632,7 +5642,7 @@
       <c r="N33">
         <v>150</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="10">
         <v>200</v>
       </c>
       <c r="P33">
@@ -5670,7 +5680,7 @@
         <v>2</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K34">
         <f t="shared" si="18"/>
@@ -5687,11 +5697,11 @@
       <c r="N34">
         <v>150</v>
       </c>
-      <c r="O34" s="9">
-        <v>500</v>
+      <c r="O34" s="10">
+        <v>200</v>
       </c>
       <c r="P34">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q34" t="s">
         <v>84</v>
@@ -5728,7 +5738,7 @@
         <v>2</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K35">
         <f t="shared" si="18"/>
@@ -5745,11 +5755,14 @@
       <c r="N35">
         <v>150</v>
       </c>
-      <c r="O35" s="9">
-        <v>500</v>
+      <c r="O35" s="10">
+        <v>600</v>
       </c>
       <c r="P35">
-        <v>200</v>
+        <v>400</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">

--- a/fabrication_ports/ports_scenario_min.xlsx
+++ b/fabrication_ports/ports_scenario_min.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\fabrication_ports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8168957-1A85-4B46-AEB9-EBC6775D6EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62F5D24-C993-4FAA-B745-90E7106E4E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg Demand Scenario" sheetId="9" r:id="rId1"/>
@@ -4200,7 +4200,7 @@
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="B29" sqref="A29:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/fabrication_ports/ports_scenario_min.xlsx
+++ b/fabrication_ports/ports_scenario_min.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\fabrication_ports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62F5D24-C993-4FAA-B745-90E7106E4E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03E2E81-2644-481B-BD74-6BEE773483CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg Demand Scenario" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Avg Demand Scenario'!$F$10:$F$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Avg Demand Scenario'!$F$10:$F$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="175">
   <si>
     <t>Port</t>
   </si>
@@ -283,9 +283,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Operational</t>
-  </si>
-  <si>
     <t>Prysmian</t>
   </si>
   <si>
@@ -391,15 +388,9 @@
     <t>Semisubmersible 2</t>
   </si>
   <si>
-    <t>Semisubmersible 3</t>
-  </si>
-  <si>
     <t>Mooring chain 1</t>
   </si>
   <si>
-    <t>Mooring rope 1</t>
-  </si>
-  <si>
     <t>Blade 4</t>
   </si>
   <si>
@@ -421,9 +412,6 @@
     <t>TBD - Humboldt</t>
   </si>
   <si>
-    <t>TBD - Central Coast</t>
-  </si>
-  <si>
     <t>TBD - Coos Bay</t>
   </si>
   <si>
@@ -439,24 +427,15 @@
     <t>Schiller Newington, Portsmouth</t>
   </si>
   <si>
-    <t>Semisubmersible 4</t>
-  </si>
-  <si>
     <t>Assembly port</t>
   </si>
   <si>
-    <t>Semisubmersible 5</t>
-  </si>
-  <si>
     <t>TBD - TX</t>
   </si>
   <si>
     <t>TX</t>
   </si>
   <si>
-    <t>Semisubmersible 6</t>
-  </si>
-  <si>
     <t>Service WC and EC</t>
   </si>
   <si>
@@ -532,9 +511,6 @@
     <t>Portsmouth, NH</t>
   </si>
   <si>
-    <t>Central Coast, CA</t>
-  </si>
-  <si>
     <t>TX port, TX</t>
   </si>
   <si>
@@ -562,9 +538,6 @@
     <t>Mooring chain</t>
   </si>
   <si>
-    <t>Mooring rope</t>
-  </si>
-  <si>
     <t>Production capacity</t>
   </si>
   <si>
@@ -578,6 +551,18 @@
   </si>
   <si>
     <t>HVDC</t>
+  </si>
+  <si>
+    <t>Monopile 1</t>
+  </si>
+  <si>
+    <t>Check anticipated operational date.  Assume that most of the port upgrade is from the tower facility</t>
+  </si>
+  <si>
+    <t>Operational.  Assume ionly $50M port upgrades</t>
+  </si>
+  <si>
+    <t>Most port upgrade under semisub</t>
   </si>
 </sst>
 </file>
@@ -678,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -695,7 +680,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -804,9 +788,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Avg Demand Scenario'!$B$11:$B$47</c:f>
+              <c:f>'Avg Demand Scenario'!$B$11:$B$43</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>SGRE</c:v>
                 </c:pt>
@@ -853,80 +837,68 @@
                   <c:v>US Wind</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Monopile 1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Jacket 1</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>GBF 1</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Smulders</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Transition piece 1</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Hellenic</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Array cable 1</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Nexans</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Prysmian</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Export cable 1</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Export cable 2</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>Nucor</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>Steel plate 1</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>Casting 1</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>USFR</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>Semisubmersible 1</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>Semisubmersible 2</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>Semisubmersible 3</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>Semisubmersible 4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Semisubmersible 5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Semisubmersible 6</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Mooring chain 1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Mooring rope 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Avg Demand Scenario'!$H$11:$H$47</c:f>
+              <c:f>'Avg Demand Scenario'!$H$11:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2021</c:v>
                 </c:pt>
@@ -976,37 +948,37 @@
                   <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2025</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>2021</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>2023</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>2021</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>2023</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2023</c:v>
@@ -1015,7 +987,7 @@
                   <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2024</c:v>
+                  <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2024</c:v>
@@ -1024,18 +996,6 @@
                   <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="36">
                   <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
@@ -1062,9 +1022,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Avg Demand Scenario'!$B$11:$B$47</c:f>
+              <c:f>'Avg Demand Scenario'!$B$11:$B$43</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>SGRE</c:v>
                 </c:pt>
@@ -1111,80 +1071,68 @@
                   <c:v>US Wind</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>Monopile 1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Jacket 1</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>GBF 1</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Smulders</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Transition piece 1</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Hellenic</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Array cable 1</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Nexans</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>Prysmian</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>Export cable 1</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Export cable 2</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>Nucor</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>Steel plate 1</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>Casting 1</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>USFR</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>Semisubmersible 1</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>Semisubmersible 2</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>Semisubmersible 3</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>Semisubmersible 4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Semisubmersible 5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Semisubmersible 6</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>Mooring chain 1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Mooring rope 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Avg Demand Scenario'!$M$11:$M$47</c:f>
+              <c:f>'Avg Demand Scenario'!$M$11:$M$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1231,28 +1179,28 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>5</c:v>
@@ -1261,19 +1209,19 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3</c:v>
@@ -1282,18 +1230,6 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="36">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1627,7 +1563,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Avg Demand Scenario'!$J$52</c:f>
+              <c:f>'Avg Demand Scenario'!$J$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1648,7 +1584,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Avg Demand Scenario'!$I$53:$I$71</c:f>
+              <c:f>'Avg Demand Scenario'!$I$49:$I$67</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
@@ -1710,7 +1646,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Avg Demand Scenario'!$J$53:$J$71</c:f>
+              <c:f>'Avg Demand Scenario'!$J$49:$J$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3090,13 +3026,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>30254</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>58177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3126,13 +3062,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>898921</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>75008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>2458640</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>151208</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3164,7 +3100,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shields, Matt" refreshedDate="44771.490716435183" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="39" xr:uid="{8520C2B9-52CF-46B0-8F6A-64DE6645DC34}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A10:M47" sheet="Avg Demand Scenario"/>
+    <worksheetSource ref="A10:M43" sheet="Avg Demand Scenario"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Component" numFmtId="0">
@@ -3783,8 +3719,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA5F775-FB12-4A7B-98B7-3842EC7091C4}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="I52:J71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA5F775-FB12-4A7B-98B7-3842EC7091C4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="I48:J67" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -4197,10 +4133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F1FF48-4396-4FE3-ABD9-234FB66F60F4}">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="A29:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4224,21 +4160,21 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
         <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
       </c>
       <c r="E3">
         <v>0.25</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -4249,40 +4185,40 @@
         <v>2023</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -4314,10 +4250,10 @@
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>0</v>
@@ -4347,13 +4283,13 @@
         <v>39</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>40</v>
@@ -4367,10 +4303,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -4421,10 +4357,10 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
@@ -4455,7 +4391,7 @@
         <v>2027</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M47" si="1">L12-H12</f>
+        <f t="shared" ref="M12:M43" si="1">L12-H12</f>
         <v>4</v>
       </c>
       <c r="N12">
@@ -4479,10 +4415,10 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -4509,7 +4445,7 @@
         <v>0.25</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L47" si="3">ROUNDDOWN(H13+I13+J13*(1-K13),0)</f>
+        <f t="shared" ref="L13:L43" si="3">ROUNDDOWN(H13+I13+J13*(1-K13),0)</f>
         <v>2027</v>
       </c>
       <c r="M13">
@@ -4517,7 +4453,7 @@
         <v>4</v>
       </c>
       <c r="N13">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="O13">
         <v>225</v>
@@ -4537,10 +4473,10 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>47</v>
@@ -4592,22 +4528,22 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H15">
         <f>$E$4+$E$5</f>
@@ -4633,13 +4569,16 @@
         <v>5</v>
       </c>
       <c r="N15">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="O15">
         <v>225</v>
       </c>
       <c r="P15">
         <v>300</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -4650,10 +4589,10 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
         <v>47</v>
@@ -4695,7 +4634,7 @@
         <v>250</v>
       </c>
       <c r="Q16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -4706,10 +4645,10 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
@@ -4751,7 +4690,7 @@
         <v>250</v>
       </c>
       <c r="Q17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -4762,10 +4701,10 @@
         <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>29</v>
@@ -4800,7 +4739,7 @@
         <v>4</v>
       </c>
       <c r="N18">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="O18">
         <v>100</v>
@@ -4814,22 +4753,22 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" t="s">
         <v>122</v>
-      </c>
-      <c r="C19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" t="s">
-        <v>125</v>
       </c>
       <c r="H19">
         <v>2023</v>
@@ -4853,13 +4792,16 @@
         <v>5</v>
       </c>
       <c r="N19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="O19">
         <v>100</v>
       </c>
       <c r="P19">
         <v>250</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -4870,10 +4812,10 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>25</v>
@@ -4906,7 +4848,7 @@
         <v>2</v>
       </c>
       <c r="N20">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="O20">
         <v>150</v>
@@ -4915,7 +4857,7 @@
         <v>300</v>
       </c>
       <c r="Q20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -4926,10 +4868,10 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>57</v>
@@ -4984,10 +4926,10 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>18</v>
@@ -5039,22 +4981,22 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H23">
         <f>$E$4+$E$5</f>
@@ -5097,10 +5039,10 @@
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>27</v>
@@ -5153,10 +5095,10 @@
         <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>57</v>
@@ -5178,7 +5120,7 @@
         <v>3.5</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:K26" si="12">$E$3</f>
+        <f t="shared" ref="K25:K27" si="12">$E$3</f>
         <v>0.25</v>
       </c>
       <c r="L25">
@@ -5204,28 +5146,27 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>21</v>
+        <v>137</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26" si="13">$E$4</f>
         <v>2023</v>
       </c>
       <c r="I26">
@@ -5233,74 +5174,73 @@
         <v>2</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="L26">
-        <f>ROUNDDOWN(H26+I26+J26*(1-K26),0)</f>
-        <v>2025</v>
+        <f t="shared" si="3"/>
+        <v>2026</v>
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>150</v>
       </c>
       <c r="O26">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P26">
-        <v>10</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>68</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>86</v>
+        <v>145</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H27">
-        <v>2025</v>
+        <f t="shared" ref="H27" si="13">$E$4</f>
+        <v>2023</v>
       </c>
       <c r="I27">
+        <f>$E$6</f>
         <v>2</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.25</v>
       </c>
       <c r="L27">
         <f>ROUNDDOWN(H27+I27+J27*(1-K27),0)</f>
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27">
         <v>150</v>
@@ -5312,62 +5252,62 @@
         <v>10</v>
       </c>
       <c r="Q27" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>25</v>
+        <v>146</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
       <c r="K28">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <f t="shared" si="3"/>
-        <v>2023</v>
+        <f>ROUNDDOWN(H28+I28+J28*(1-K28),0)</f>
+        <v>2028</v>
       </c>
       <c r="M28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28">
         <v>150</v>
       </c>
       <c r="O28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P28">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="Q28" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -5375,16 +5315,16 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
         <v>23</v>
@@ -5393,75 +5333,73 @@
         <v>24</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29" si="14">$E$4</f>
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29:I37" si="15">$E$6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29">
-        <f t="shared" ref="K29:K31" si="16">$E$3</f>
         <v>0.25</v>
       </c>
       <c r="L29">
         <f t="shared" si="3"/>
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="M29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="O29">
         <v>100</v>
       </c>
       <c r="P29">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q29" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H30">
-        <v>2021</v>
+        <f t="shared" ref="H30" si="14">$E$4</f>
+        <v>2023</v>
       </c>
       <c r="I30">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="I30:I38" si="15">$E$6</f>
         <v>2</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="K30:K32" si="16">$E$3</f>
         <v>0.25</v>
       </c>
       <c r="L30">
@@ -5470,16 +5408,19 @@
       </c>
       <c r="M30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="O30">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="P30">
-        <v>200</v>
+        <v>300</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -5487,26 +5428,25 @@
         <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31" si="17">$E$4</f>
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="I31">
         <f t="shared" si="15"/>
@@ -5521,7 +5461,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="3"/>
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="M31">
         <f t="shared" si="1"/>
@@ -5531,68 +5471,68 @@
         <v>150</v>
       </c>
       <c r="O31">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="P31">
-        <v>400</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H32">
-        <v>2018</v>
+        <f t="shared" ref="H32" si="17">$E$4</f>
+        <v>2023</v>
       </c>
       <c r="I32">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="J32" t="s">
-        <v>80</v>
-      </c>
-      <c r="K32" t="s">
-        <v>80</v>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="16"/>
+        <v>0.25</v>
       </c>
       <c r="L32">
-        <v>2020</v>
+        <f t="shared" si="3"/>
+        <v>2028</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N32">
         <v>150</v>
       </c>
-      <c r="O32" s="10">
-        <v>200</v>
+      <c r="O32">
+        <v>500</v>
       </c>
       <c r="P32">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q32" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -5600,53 +5540,54 @@
         <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="I33">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="J33">
-        <v>5</v>
-      </c>
-      <c r="K33">
-        <f t="shared" ref="K33:K37" si="18">$E$3</f>
-        <v>0.25</v>
+      <c r="J33" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" t="s">
+        <v>80</v>
       </c>
       <c r="L33">
-        <f t="shared" si="3"/>
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="M33">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>150</v>
-      </c>
-      <c r="O33" s="10">
+        <v>50</v>
+      </c>
+      <c r="O33" s="9">
         <v>200</v>
       </c>
       <c r="P33">
         <v>200</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -5654,26 +5595,25 @@
         <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
         <v>15</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H35" si="19">$E$4</f>
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="I34">
         <f t="shared" si="15"/>
@@ -5683,12 +5623,12 @@
         <v>5</v>
       </c>
       <c r="K34">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="K34:K38" si="18">$E$3</f>
         <v>0.25</v>
       </c>
       <c r="L34">
         <f t="shared" si="3"/>
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="M34">
         <f t="shared" si="1"/>
@@ -5697,14 +5637,11 @@
       <c r="N34">
         <v>150</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34" s="9">
         <v>200</v>
       </c>
       <c r="P34">
-        <v>400</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -5712,25 +5649,25 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
+        <v>151</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H35">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="H35:H36" si="19">$E$4</f>
         <v>2023</v>
       </c>
       <c r="I35">
@@ -5755,46 +5692,48 @@
       <c r="N35">
         <v>150</v>
       </c>
-      <c r="O35" s="10">
-        <v>600</v>
+      <c r="O35" s="9">
+        <v>200</v>
       </c>
       <c r="P35">
         <v>400</v>
       </c>
       <c r="Q35" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>89</v>
+        <v>152</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
         <v>5</v>
       </c>
       <c r="H36">
-        <v>2021</v>
+        <f t="shared" si="19"/>
+        <v>2023</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K36">
         <f t="shared" si="18"/>
@@ -5802,54 +5741,52 @@
       </c>
       <c r="L36">
         <f t="shared" si="3"/>
-        <v>2022</v>
+        <v>2028</v>
       </c>
       <c r="M36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N36">
         <v>150</v>
       </c>
-      <c r="O36">
-        <v>60000</v>
+      <c r="O36" s="9">
+        <v>600</v>
       </c>
       <c r="P36">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q36" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
         <v>87</v>
       </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" t="s">
-        <v>3</v>
+        <v>153</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
         <v>5</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:H39" si="20">$E$4</f>
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="I37">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -5860,96 +5797,98 @@
       </c>
       <c r="L37">
         <f t="shared" si="3"/>
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="M37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>150</v>
       </c>
       <c r="O37">
-        <v>1000000</v>
+        <v>60000</v>
       </c>
       <c r="P37">
-        <v>2000</v>
+        <v>1000</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>154</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="H38">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="H38:H40" si="20">$E$4</f>
         <v>2023</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="J38">
         <v>2</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>0.25</v>
       </c>
       <c r="L38">
         <f t="shared" si="3"/>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="M38">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N38">
         <v>150</v>
       </c>
-      <c r="O38" s="9">
-        <v>700</v>
+      <c r="O38">
+        <v>1000000</v>
       </c>
       <c r="P38">
-        <v>100</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>113</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F39" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="H39">
         <f t="shared" si="20"/>
@@ -5962,107 +5901,106 @@
         <v>2</v>
       </c>
       <c r="K39">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <f t="shared" si="3"/>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>150</v>
-      </c>
-      <c r="O39" s="9">
-        <v>5000</v>
+        <v>0</v>
+      </c>
+      <c r="O39" s="8">
+        <v>700</v>
       </c>
       <c r="P39">
         <v>100</v>
       </c>
       <c r="Q39" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F40" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G40" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="H40">
-        <f>$E$4+$E$5</f>
-        <v>2024</v>
+        <f t="shared" si="20"/>
+        <v>2023</v>
       </c>
       <c r="I40">
-        <f>$E$6+$E$7</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40">
         <v>0.25</v>
       </c>
       <c r="L40">
         <f t="shared" si="3"/>
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="M40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>150</v>
-      </c>
-      <c r="O40">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="O40" s="8">
+        <v>5000</v>
       </c>
       <c r="P40">
         <v>100</v>
       </c>
       <c r="Q40" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
         <v>114</v>
       </c>
-      <c r="B41" t="s">
-        <v>116</v>
-      </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H41">
         <f>$E$4+$E$5</f>
@@ -6096,30 +6034,30 @@
         <v>100</v>
       </c>
       <c r="Q41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H42">
         <f>$E$4+$E$5</f>
@@ -6153,457 +6091,233 @@
         <v>100</v>
       </c>
       <c r="Q42" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="G43" t="s">
         <v>67</v>
       </c>
       <c r="H43">
-        <v>2031</v>
+        <f>$E$4+$E$5</f>
+        <v>2024</v>
       </c>
       <c r="I43">
-        <f>$E$7</f>
-        <v>1</v>
+        <f>$E$6</f>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43">
         <v>0.25</v>
       </c>
       <c r="L43">
-        <f t="shared" ref="L43:L44" si="21">ROUNDDOWN(H43+I43+J43*(1-K43),0)</f>
-        <v>2032</v>
+        <f t="shared" si="3"/>
+        <v>2027</v>
       </c>
       <c r="M43">
-        <f t="shared" ref="M43:M44" si="22">L43-H43</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="N43">
         <v>150</v>
       </c>
       <c r="O43">
+        <v>2000</v>
+      </c>
+      <c r="P43">
         <v>50</v>
       </c>
-      <c r="P43">
-        <v>100</v>
-      </c>
       <c r="Q43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44">
-        <v>2030</v>
-      </c>
-      <c r="I44">
-        <f>$E$7</f>
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>0.25</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="21"/>
-        <v>2031</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>150</v>
-      </c>
-      <c r="O44">
-        <v>50</v>
-      </c>
-      <c r="P44">
-        <v>100</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" t="s">
-        <v>172</v>
-      </c>
-      <c r="D45" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45">
-        <v>2029</v>
-      </c>
-      <c r="I45">
-        <f>$E$7</f>
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>0.25</v>
-      </c>
-      <c r="L45">
-        <f t="shared" ref="L45" si="23">ROUNDDOWN(H45+I45+J45*(1-K45),0)</f>
-        <v>2030</v>
-      </c>
-      <c r="M45">
-        <f t="shared" ref="M45" si="24">L45-H45</f>
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>150</v>
-      </c>
-      <c r="O45">
-        <v>50</v>
-      </c>
-      <c r="P45">
-        <v>100</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I48" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I49" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C46" t="s">
-        <v>172</v>
-      </c>
-      <c r="D46" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" t="s">
-        <v>137</v>
-      </c>
-      <c r="G46" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46">
-        <f>$E$4+$E$5</f>
-        <v>2024</v>
-      </c>
-      <c r="I46">
-        <f>$E$6</f>
+      <c r="J49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53">
         <v>2</v>
       </c>
-      <c r="J46">
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I55" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55">
         <v>2</v>
       </c>
-      <c r="K46">
-        <v>0.25</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="3"/>
-        <v>2027</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="N46">
-        <v>150</v>
-      </c>
-      <c r="O46">
-        <v>2000</v>
-      </c>
-      <c r="P46">
-        <v>50</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>174</v>
-      </c>
-      <c r="B47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" t="s">
-        <v>172</v>
-      </c>
-      <c r="D47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47">
-        <v>2024</v>
-      </c>
-      <c r="I47">
-        <f>$E$6</f>
+    <row r="56" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56">
         <v>2</v>
       </c>
-      <c r="J47">
+    </row>
+    <row r="57" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I57" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I58" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I59" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I60" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J60">
         <v>2</v>
       </c>
-      <c r="K47">
-        <v>0.25</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="3"/>
-        <v>2027</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="N47">
-        <v>150</v>
-      </c>
-      <c r="O47">
-        <v>2000</v>
-      </c>
-      <c r="P47">
-        <v>50</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>101</v>
+    <row r="61" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I61" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I52" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J52" t="s">
-        <v>104</v>
+    <row r="62" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I53" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J53" s="8">
-        <v>4</v>
+    <row r="63" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I63" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I54" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I55" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J55" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J56" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I58" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J58" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I59" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I60" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J60" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I61" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J61" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I62" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J62" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I63" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I64" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J64" s="8">
+        <v>8</v>
+      </c>
+      <c r="J64">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I65" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J65" s="8">
+        <v>125</v>
+      </c>
+      <c r="J65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I66" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="8">
+        <v>131</v>
+      </c>
+      <c r="J66">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I68" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J68" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I69" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J69" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I70" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J70" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I71" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J71" s="8">
+        <v>102</v>
+      </c>
+      <c r="J67">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F10:F47" xr:uid="{57F1FF48-4396-4FE3-ABD9-234FB66F60F4}"/>
+  <autoFilter ref="F10:F43" xr:uid="{57F1FF48-4396-4FE3-ABD9-234FB66F60F4}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/fabrication_ports/ports_scenario_min.xlsx
+++ b/fabrication_ports/ports_scenario_min.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\fabrication_ports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03E2E81-2644-481B-BD74-6BEE773483CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E4123A-568D-4763-B82B-68A2D71BCBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg Demand Scenario" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="178">
   <si>
     <t>Port</t>
   </si>
@@ -379,18 +379,12 @@
     <t xml:space="preserve">Doesn't need to be at a port.  Exising large foundries in OH, PA. </t>
   </si>
   <si>
-    <t>Semisubmersible</t>
-  </si>
-  <si>
-    <t>Semisubmersible 1</t>
-  </si>
-  <si>
-    <t>Semisubmersible 2</t>
-  </si>
-  <si>
     <t>Mooring chain 1</t>
   </si>
   <si>
+    <t>Mooring rope 1</t>
+  </si>
+  <si>
     <t>Blade 4</t>
   </si>
   <si>
@@ -538,6 +532,9 @@
     <t>Mooring chain</t>
   </si>
   <si>
+    <t>Mooring rope</t>
+  </si>
+  <si>
     <t>Production capacity</t>
   </si>
   <si>
@@ -563,6 +560,18 @@
   </si>
   <si>
     <t>Most port upgrade under semisub</t>
+  </si>
+  <si>
+    <t>Assume relatively minor upgrades to existin industry</t>
+  </si>
+  <si>
+    <t>Floating platform</t>
+  </si>
+  <si>
+    <t>Floating platform 1</t>
+  </si>
+  <si>
+    <t>Floating platform 2</t>
   </si>
 </sst>
 </file>
@@ -882,10 +891,10 @@
                   <c:v>USFR</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Semisubmersible 1</c:v>
+                  <c:v>Floating platform 1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Semisubmersible 2</c:v>
+                  <c:v>Floating platform 2</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>Mooring chain 1</c:v>
@@ -990,10 +999,10 @@
                   <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2024</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2024</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2024</c:v>
@@ -1116,10 +1125,10 @@
                   <c:v>USFR</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Semisubmersible 1</c:v>
+                  <c:v>Floating platform 1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Semisubmersible 2</c:v>
+                  <c:v>Floating platform 2</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>Mooring chain 1</c:v>
@@ -4135,8 +4144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F1FF48-4396-4FE3-ABD9-234FB66F60F4}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4190,7 +4199,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4212,7 +4221,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4250,10 +4259,10 @@
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>0</v>
@@ -4283,13 +4292,13 @@
         <v>39</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>40</v>
@@ -4303,10 +4312,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -4357,10 +4366,10 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
@@ -4391,7 +4400,7 @@
         <v>2027</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M43" si="1">L12-H12</f>
+        <f t="shared" ref="M12:M44" si="1">L12-H12</f>
         <v>4</v>
       </c>
       <c r="N12">
@@ -4415,10 +4424,10 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -4445,7 +4454,7 @@
         <v>0.25</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L43" si="3">ROUNDDOWN(H13+I13+J13*(1-K13),0)</f>
+        <f t="shared" ref="L13:L44" si="3">ROUNDDOWN(H13+I13+J13*(1-K13),0)</f>
         <v>2027</v>
       </c>
       <c r="M13">
@@ -4473,10 +4482,10 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>47</v>
@@ -4528,22 +4537,22 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H15">
         <f>$E$4+$E$5</f>
@@ -4578,7 +4587,7 @@
         <v>300</v>
       </c>
       <c r="Q15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -4589,10 +4598,10 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
         <v>47</v>
@@ -4645,10 +4654,10 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
@@ -4701,10 +4710,10 @@
         <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>29</v>
@@ -4753,22 +4762,22 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H19">
         <v>2023</v>
@@ -4801,7 +4810,7 @@
         <v>250</v>
       </c>
       <c r="Q19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -4812,10 +4821,10 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>25</v>
@@ -4868,10 +4877,10 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>57</v>
@@ -4926,10 +4935,10 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>18</v>
@@ -4981,22 +4990,22 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
         <v>120</v>
-      </c>
-      <c r="C23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" t="s">
-        <v>122</v>
       </c>
       <c r="H23">
         <f>$E$4+$E$5</f>
@@ -5039,10 +5048,10 @@
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>27</v>
@@ -5095,10 +5104,10 @@
         <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>57</v>
@@ -5149,13 +5158,13 @@
         <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -5205,10 +5214,10 @@
         <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>21</v>
@@ -5263,10 +5272,10 @@
         <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>85</v>
@@ -5318,10 +5327,10 @@
         <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>25</v>
@@ -5362,7 +5371,7 @@
         <v>200</v>
       </c>
       <c r="Q29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -5373,10 +5382,10 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>71</v>
@@ -5431,10 +5440,10 @@
         <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>57</v>
@@ -5485,10 +5494,10 @@
         <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>28</v>
@@ -5543,10 +5552,10 @@
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -5587,7 +5596,7 @@
         <v>200</v>
       </c>
       <c r="Q33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -5598,10 +5607,10 @@
         <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>13</v>
@@ -5652,10 +5661,10 @@
         <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>16</v>
@@ -5710,10 +5719,10 @@
         <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -5757,7 +5766,7 @@
         <v>400</v>
       </c>
       <c r="Q36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -5768,10 +5777,10 @@
         <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -5813,7 +5822,7 @@
         <v>1000</v>
       </c>
       <c r="Q37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -5824,10 +5833,10 @@
         <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
@@ -5879,10 +5888,10 @@
         <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F39" t="s">
         <v>110</v>
@@ -5926,22 +5935,22 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" t="s">
         <v>126</v>
       </c>
-      <c r="B40" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" t="s">
-        <v>128</v>
-      </c>
       <c r="F40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G40" t="s">
         <v>15</v>
@@ -5977,34 +5986,33 @@
         <v>100</v>
       </c>
       <c r="Q40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H41">
-        <f>$E$4+$E$5</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="I41">
         <f>$E$6+$E$7</f>
@@ -6018,7 +6026,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="3"/>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="M41">
         <f t="shared" si="1"/>
@@ -6034,34 +6042,33 @@
         <v>100</v>
       </c>
       <c r="Q41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H42">
-        <f>$E$4+$E$5</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="I42">
         <f>$E$6+$E$7</f>
@@ -6075,7 +6082,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="3"/>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="M42">
         <f t="shared" si="1"/>
@@ -6091,27 +6098,27 @@
         <v>100</v>
       </c>
       <c r="Q42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G43" t="s">
         <v>67</v>
@@ -6148,7 +6155,62 @@
         <v>50</v>
       </c>
       <c r="Q43" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44">
+        <v>2024</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0.25</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="3"/>
+        <v>2026</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>50</v>
+      </c>
+      <c r="O44">
+        <v>2000</v>
+      </c>
+      <c r="P44">
+        <v>50</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -6166,7 +6228,7 @@
     </row>
     <row r="49" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I49" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -6230,7 +6292,7 @@
     </row>
     <row r="57" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I57" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -6254,7 +6316,7 @@
     </row>
     <row r="60" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I60" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -6294,7 +6356,7 @@
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I65" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -6302,7 +6364,7 @@
     </row>
     <row r="66" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I66" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J66">
         <v>2</v>

--- a/fabrication_ports/ports_scenario_min.xlsx
+++ b/fabrication_ports/ports_scenario_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\fabrication_ports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E4123A-568D-4763-B82B-68A2D71BCBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC450BA1-758C-48F7-B114-D0CEB8C98D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/fabrication_ports/ports_scenario_min.xlsx
+++ b/fabrication_ports/ports_scenario_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\fabrication_ports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC450BA1-758C-48F7-B114-D0CEB8C98D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0784BC48-5D13-47D6-B1AA-D4B562791F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="1" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -544,9 +544,6 @@
     <t>Expected opration in 2022</t>
   </si>
   <si>
-    <t>USFR</t>
-  </si>
-  <si>
     <t>HVDC</t>
   </si>
   <si>
@@ -572,6 +569,9 @@
   </si>
   <si>
     <t>Floating platform 2</t>
+  </si>
+  <si>
+    <t>Flange 1</t>
   </si>
 </sst>
 </file>
@@ -888,7 +888,7 @@
                   <c:v>Casting 1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>USFR</c:v>
+                  <c:v>Flange 1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>Floating platform 1</c:v>
@@ -1122,7 +1122,7 @@
                   <c:v>Casting 1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>USFR</c:v>
+                  <c:v>Flange 1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>Floating platform 1</c:v>
@@ -3728,7 +3728,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA5F775-FB12-4A7B-98B7-3842EC7091C4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA5F775-FB12-4A7B-98B7-3842EC7091C4}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="I48:J67" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -4144,8 +4144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F1FF48-4396-4FE3-ABD9-234FB66F60F4}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4587,7 +4587,7 @@
         <v>300</v>
       </c>
       <c r="Q15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -4810,7 +4810,7 @@
         <v>250</v>
       </c>
       <c r="Q19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -5158,7 +5158,7 @@
         <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" t="s">
         <v>162</v>
@@ -5371,7 +5371,7 @@
         <v>200</v>
       </c>
       <c r="Q29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -5596,7 +5596,7 @@
         <v>200</v>
       </c>
       <c r="Q33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -5766,7 +5766,7 @@
         <v>400</v>
       </c>
       <c r="Q36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -5938,10 +5938,10 @@
         <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
         <v>154</v>
@@ -5991,10 +5991,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" t="s">
         <v>175</v>
-      </c>
-      <c r="B41" t="s">
-        <v>176</v>
       </c>
       <c r="C41" t="s">
         <v>162</v>
@@ -6047,10 +6047,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
         <v>162</v>
@@ -6210,7 +6210,7 @@
         <v>50</v>
       </c>
       <c r="Q44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">

--- a/fabrication_ports/ports_scenario_min.xlsx
+++ b/fabrication_ports/ports_scenario_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\fabrication_ports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0784BC48-5D13-47D6-B1AA-D4B562791F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32592C89-3451-4D03-BC0F-B3AC0817DF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3728,7 +3728,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA5F775-FB12-4A7B-98B7-3842EC7091C4}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA5F775-FB12-4A7B-98B7-3842EC7091C4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="I48:J67" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -4144,8 +4144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F1FF48-4396-4FE3-ABD9-234FB66F60F4}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="H19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6152,7 +6152,7 @@
         <v>2000</v>
       </c>
       <c r="P43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="Q43" t="s">
         <v>130</v>
